--- a/ExcelTool/bin/table/飞机大战数据.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E511B88-1B6F-49FA-9B63-232F3BFB3B28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9235FFF8-9184-4B82-B6F5-6CB2A062DE7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5808" yWindow="3492" windowWidth="21600" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -399,25 +403,25 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,7 +430,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,10 +441,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +866,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -892,6 +896,9 @@
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">

--- a/ExcelTool/bin/table/飞机大战数据.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9235FFF8-9184-4B82-B6F5-6CB2A062DE7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092CF65-C367-46AE-A11D-A25277C6C3AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="3492" windowWidth="21600" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="3492" windowWidth="21600" windowHeight="10452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GunNormalDamageSetting" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -862,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1060,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9B487D-C369-4284-80A0-F6633FD9447C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1096,9 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">

--- a/ExcelTool/bin/table/飞机大战数据.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092CF65-C367-46AE-A11D-A25277C6C3AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF8747-5BE7-40F5-AB33-A53F8ED88791}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="3492" windowWidth="21600" windowHeight="10452" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3036" windowWidth="21600" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GunNormalDamageSetting" sheetId="1" r:id="rId1"/>
     <sheet name="GunNormalSpeedSetting" sheetId="4" r:id="rId2"/>
     <sheet name="LanguageSetting" sheetId="3" r:id="rId3"/>
-    <sheet name="BattleSceneSetting" sheetId="2" r:id="rId4"/>
+    <sheet name="GameSetting" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -48,30 +48,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuildBridgeSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭桥的速度，即每秒钟桥生长的距离（米）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BridgeCellSize</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭桥细胞的尺寸，单位（米）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BridgeNeighborCellDis</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭桥两相邻细胞之间的距离（中心点距离），单位（米）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -108,22 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BridgeShootCellMinDuration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥搭建完成后发射细胞的最短时间间隔，单位（毫秒）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrokenBridgeRatio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己主动拆自己的桥的时候，value=建桥时细胞生成时间间隔/细胞消失时间间隔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>KVT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -237,6 +197,70 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，每次奖励量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，每次奖励时间间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRecoverTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRecoverCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复能量耗时，单位（秒）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondRecoverTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复钻石耗时，单位(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondRecoverCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复钻石个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复能量点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMax</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -882,16 +906,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -902,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -911,18 +935,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
     </row>
@@ -931,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -942,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -953,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -967,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1064,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9B487D-C369-4284-80A0-F6633FD9447C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1077,16 +1101,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -1097,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1109,22 +1133,22 @@
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1134,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1146,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1158,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1173,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1290,13 +1314,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1333,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,7 +1344,7 @@
         <v>1000</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,7 +1352,7 @@
         <v>1001</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1336,7 +1360,7 @@
         <v>1002</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,7 +1368,7 @@
         <v>1003</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1376,7 @@
         <v>1004</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +1384,7 @@
         <v>1005</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1392,7 @@
         <v>1006</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1400,7 @@
         <v>1007</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E35B117-A9CD-4E5C-BF9C-AC94340ED648}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1410,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,15 +1448,15 @@
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11"/>
     </row>
@@ -1444,58 +1468,92 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>1.4</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>0.28000000000000003</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>0.28000000000000003</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTool/bin/table/飞机大战数据.xlsx
+++ b/ExcelTool/bin/table/飞机大战数据.xlsx
@@ -3,22 +3,388 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADF8747-5BE7-40F5-AB33-A53F8ED88791}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B5DD4-3CA4-4AB8-80FA-E625B1585459}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3036" windowWidth="21600" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GunNormalDamageSetting" sheetId="1" r:id="rId1"/>
-    <sheet name="GunNormalSpeedSetting" sheetId="4" r:id="rId2"/>
-    <sheet name="LanguageSetting" sheetId="3" r:id="rId3"/>
-    <sheet name="GameSetting" sheetId="2" r:id="rId4"/>
+    <sheet name="BodySetting" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondaryGunSetting" sheetId="5" r:id="rId2"/>
+    <sheet name="MissileSetting" sheetId="6" r:id="rId3"/>
+    <sheet name="TrailSetting" sheetId="7" r:id="rId4"/>
+    <sheet name="LanguageSetting" sheetId="3" r:id="rId5"/>
+    <sheet name="GameSetting" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1000：装备机身起始ID
+2000：装备火力起始ID
+3000：装备导弹起始ID
+4000：装备尾翼起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通关解锁</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9BE32313-2669-4EE2-8F9E-D049A4F7529D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1000：装备机身起始ID
+2000：装备火力起始ID
+3000：装备导弹起始ID
+4000：装备尾翼起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{C7412016-C203-469A-A028-49BFF0D41358}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通关解锁</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C5EFFE3B-82A3-4DC3-9134-9332A69564A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1DA3ABD8-5C4E-41CD-BF9F-BEF5EAD4DC48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1000：装备机身起始ID
+2000：装备火力起始ID
+3000：装备导弹起始ID
+4000：装备尾翼起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{46CDAF05-3EB8-4EF7-B12F-DF91D4A05362}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通关解锁</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E52B8337-FCD9-42D3-A368-AF491E15FFEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9A30C6E7-8E5C-4F4F-9794-CA8CD8E72D57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1000：装备机身起始ID
+2000：装备火力起始ID
+3000：装备导弹起始ID
+4000：装备尾翼起始ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{769CE199-F9BE-4B83-AAB1-72CE7AA9DA66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通关解锁</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D006D9ED-EF20-4F9A-9726-9972395B0DBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：通过第N关，填写关卡值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -32,10 +398,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -48,147 +410,155 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>友军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言表id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVT即KeyValueTable标识，表明这是一个键值对表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于KVT表，要求第一个字段必须为Key，且是string类型。第二个字段必须为Value，第三个字段必须为KeyDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营:s%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已占领:s%/s%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支数:s%/s%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，每次奖励量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，每次奖励时间间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币奖励，最大值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRecoverTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerRecoverCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复能量耗时，单位（秒）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondRecoverTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复钻石耗时，单位(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondRecoverCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复钻石个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次恢复能量点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinRewardTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerMax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞数:{s%}/s%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>友军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>野怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言表id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KVT即KeyValueTable标识，表明这是一个键值对表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于KVT表，要求第一个字段必须为Key，且是string类型。第二个字段必须为Value，第三个字段必须为KeyDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵营:s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>细胞数:s%}/s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已占领:s%/s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支数:s%/s%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>枪的伤害等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级消耗金钱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪的射速等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>射速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪的射速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -196,71 +566,127 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量最大值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币奖励，每次奖励量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币奖励，每次奖励时间间隔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoinRewardMax</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币奖励，最大值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerRecoverTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerRecoverCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次恢复能量耗时，单位（秒）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondRecoverTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次恢复钻石耗时，单位(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondRecoverCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次恢复钻石个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次恢复能量点数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoinRewardCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoinRewardTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PowerMax</t>
+    <t>频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinReward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币收益</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinMultiply</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用语言表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认子弹ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色机身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色机身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪散射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电机枪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色尾翼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色尾翼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +694,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,11 +769,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -365,6 +789,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -421,24 +860,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,12 +916,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +936,127 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -887,423 +1462,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="51.33203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="37.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1008</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5">
-        <v>18</v>
-      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>999</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>999</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:L2">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9B487D-C369-4284-80A0-F6633FD9447C}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8026B52-CF55-48DC-8D86-B26C46E34A0E}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>200</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <v>500</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1011</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:L2">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88515294-FE01-4CB5-A999-E01A3130B381}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18CF833-C8E3-4FD3-833A-20A74CDB8951}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>3001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1012</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>3011</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1013</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:L2">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1034E8-97B7-4AE6-85D3-98B9692FAA0B}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A8:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1014</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>4011</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1015</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:L2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1314,13 +2539,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,15 +2553,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,7 +2569,7 @@
         <v>1000</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +2577,7 @@
         <v>1001</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +2585,7 @@
         <v>1002</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +2593,7 @@
         <v>1003</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +2601,7 @@
         <v>1004</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +2609,7 @@
         <v>1005</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,7 +2617,7 @@
         <v>1006</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +2625,79 @@
         <v>1007</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>IF(B14="","",A13+1)</f>
+        <v>1008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15:A21" si="0">IF(B15="","",A14+1)</f>
+        <v>1009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1410,12 +2707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E35B117-A9CD-4E5C-BF9C-AC94340ED648}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1427,139 +2724,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
+      <c r="A3" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>4000</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Key@" xr:uid="{EF01002D-12ED-487F-893C-FDFE3893300A}"/>
+    <hyperlink ref="A1" r:id="rId1" display="Key@" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
